--- a/testing/test_files/test_genome_annotation3.xlsx
+++ b/testing/test_files/test_genome_annotation3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1985937\Documents\BI_Sum_2021\EC-Scrape\testing\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE078111-5B1C-401C-975B-92B1295FC420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C717688-5E52-41F0-8C34-4A60B86CD5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genome Annotation" sheetId="1" r:id="rId1"/>
